--- a/library/Plantilla.xlsx
+++ b/library/Plantilla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Publicity-Data-Sytem-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Publicity-Data-Sytem-1\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F339E5-C232-41AB-9504-5C2656787AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B741128-DC44-45CA-AB1D-56E9C8DFAD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{CE663967-E9D0-4ED2-91D0-ABD14DB83821}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>TIPO DE TRABAJO</t>
-  </si>
-  <si>
-    <t>COPYNATO ÁLVAREZ</t>
   </si>
   <si>
     <t>CLIENTE</t>
@@ -91,7 +88,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +103,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFCCFF99"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -166,24 +175,24 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -207,6 +216,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F704B53-E541-4AC7-AD1B-47C497E31D6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="24512" t="21095" r="24791" b="21556"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2612572" y="13607"/>
+          <a:ext cx="4789713" cy="1513210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211FD0B2-20BB-483D-813C-91041ACB1C76}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B100"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,22 +594,20 @@
     <col min="6" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+    <row r="1" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -552,789 +623,789 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
-      <c r="I3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="2"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="2"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="2"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="2"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="2"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="2"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="2"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="2"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="2"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="2"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="2"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="2"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="2"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="2"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="2"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="2"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="2"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="2"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="2"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="2"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="2"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="2"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="2"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="2"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="2"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="2"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="2"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="2"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="2"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="2"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="2"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="2"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="2"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="2"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="2"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="2"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="2"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="2"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="2"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="2"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="2"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="2"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="2"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="2"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="2"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="2"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="2"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="2"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="2"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="2"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="2"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="5"/>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="2"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="2"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="5"/>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="2"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="2"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="2"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="2"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="2"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="2"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="2"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="2"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="2"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="2"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1349,5 +1420,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>